--- a/customers.xlsx
+++ b/customers.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\JADWAL\jadwalweb\releases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1B7C3246-0DDC-4EF6-9FF9-B86CD532F532}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E73D1ED7-E2E2-44D5-940B-529910CD34BF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11385" xr2:uid="{6C8C07A0-0FF6-4AC7-B884-C4BB09FFDA6B}"/>
+    <workbookView xWindow="3465" yWindow="3465" windowWidth="21600" windowHeight="11385" xr2:uid="{6C8C07A0-0FF6-4AC7-B884-C4BB09FFDA6B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>name</t>
   </si>
@@ -34,6 +34,12 @@
   </si>
   <si>
     <t>nameAr</t>
+  </si>
+  <si>
+    <t>ahmad ali</t>
+  </si>
+  <si>
+    <t>احمد علي</t>
   </si>
 </sst>
 </file>
@@ -385,10 +391,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEA849A3-BCBE-40A4-8A34-00200204A5F5}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -404,6 +410,17 @@
         <v>1</v>
       </c>
     </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <v>33221100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/customers.xlsx
+++ b/customers.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\JADWAL\jadwalweb\releases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\Desktop\githubfiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E73D1ED7-E2E2-44D5-940B-529910CD34BF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A68E039E-A3EE-4042-BF1A-3667B2B6CC96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3465" yWindow="3465" windowWidth="21600" windowHeight="11385" xr2:uid="{6C8C07A0-0FF6-4AC7-B884-C4BB09FFDA6B}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11385" xr2:uid="{366633EA-82ED-43D1-9393-BA34678353D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,26 +20,33 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
   <si>
     <t>name</t>
+  </si>
+  <si>
+    <t>nameAr</t>
+  </si>
+  <si>
+    <t>additionId</t>
   </si>
   <si>
     <t>phone</t>
   </si>
   <si>
-    <t>nameAr</t>
-  </si>
-  <si>
-    <t>ahmad ali</t>
-  </si>
-  <si>
-    <t>احمد علي</t>
+    <t>MADI INTERNATIONNAL</t>
   </si>
 </sst>
 </file>
@@ -390,35 +397,46 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEA849A3-BCBE-40A4-8A34-00200204A5F5}">
-  <dimension ref="A1:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4629187C-B87A-4A0C-AE7E-CD7F95E68124}">
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>3</v>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2001</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C2">
-        <v>33221100</v>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2">
+        <v>5005001</v>
       </c>
     </row>
   </sheetData>

--- a/customers.xlsx
+++ b/customers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\Desktop\githubfiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A68E039E-A3EE-4042-BF1A-3667B2B6CC96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28F7193F-9034-4A35-BCF3-E55687FD60FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11385" xr2:uid="{366633EA-82ED-43D1-9393-BA34678353D1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{366633EA-82ED-43D1-9393-BA34678353D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>name</t>
   </si>
@@ -47,6 +47,21 @@
   </si>
   <si>
     <t>MADI INTERNATIONNAL</t>
+  </si>
+  <si>
+    <t>tel</t>
+  </si>
+  <si>
+    <t>nationalNo</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>Aziziah Street 53</t>
+  </si>
+  <si>
+    <t>empcode</t>
   </si>
 </sst>
 </file>
@@ -398,20 +413,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4629187C-B87A-4A0C-AE7E-CD7F95E68124}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="21.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -424,8 +441,20 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2001</v>
       </c>
@@ -437,6 +466,18 @@
       </c>
       <c r="D2">
         <v>5005001</v>
+      </c>
+      <c r="E2">
+        <v>44556622</v>
+      </c>
+      <c r="F2">
+        <v>29067000555</v>
+      </c>
+      <c r="G2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2">
+        <v>1001</v>
       </c>
     </row>
   </sheetData>

--- a/customers.xlsx
+++ b/customers.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\Desktop\githubfiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28F7193F-9034-4A35-BCF3-E55687FD60FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A3922AB-BFB2-490F-ADB0-07CFBE5AD579}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{366633EA-82ED-43D1-9393-BA34678353D1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{366633EA-82ED-43D1-9393-BA34678353D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>name</t>
   </si>
@@ -62,16 +62,39 @@
   </si>
   <si>
     <t>empcode</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>houseno</t>
+  </si>
+  <si>
+    <t>locationLink</t>
+  </si>
+  <si>
+    <t>Al Rayyan</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/@25.2960247,51.5101904,14.75z</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -94,13 +117,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -413,10 +439,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4629187C-B87A-4A0C-AE7E-CD7F95E68124}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -425,10 +451,12 @@
     <col min="2" max="3" width="22.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="59.140625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="21.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -453,8 +481,17 @@
       <c r="H1" t="s">
         <v>9</v>
       </c>
+      <c r="I1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2001</v>
       </c>
@@ -479,8 +516,20 @@
       <c r="H2">
         <v>1001</v>
       </c>
+      <c r="I2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2">
+        <v>54</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="K2" r:id="rId1" xr:uid="{740756C8-98CE-426F-AF87-FE936A83AAD6}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>